--- a/2-Empirical-Evidence/raw_data/Arizona.xlsx
+++ b/2-Empirical-Evidence/raw_data/Arizona.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN040010000000003</t>
@@ -718,10 +734,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>13.0</v>
@@ -816,10 +844,20 @@
       <c r="AF5" t="n" s="10">
         <v>12.7</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>9.2</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>2248.0</v>
@@ -914,10 +952,20 @@
       <c r="AF6" t="n" s="8">
         <v>2478.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>1731.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>1423.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>1441.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>15030.0</v>
@@ -1012,10 +1060,20 @@
       <c r="AF7" t="n" s="8">
         <v>17107.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>17159.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>16938.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>16842.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>17278.0</v>
@@ -1110,10 +1168,20 @@
       <c r="AF8" t="n" s="8">
         <v>19585.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>18890.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>18361.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>18283.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>6.4</v>
@@ -1208,10 +1276,20 @@
       <c r="AF9" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>2364.0</v>
@@ -1306,10 +1384,20 @@
       <c r="AF10" t="n" s="8">
         <v>3480.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>2473.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>2133.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>2248.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>34447.0</v>
@@ -1404,10 +1492,20 @@
       <c r="AF11" t="n" s="8">
         <v>46793.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>46465.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>46597.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>47337.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>36811.0</v>
@@ -1502,10 +1600,20 @@
       <c r="AF12" t="n" s="8">
         <v>50273.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>48938.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>48730.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>49585.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>7.5</v>
@@ -1600,10 +1708,20 @@
       <c r="AF13" t="n" s="10">
         <v>9.6</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>3590.0</v>
@@ -1698,10 +1816,20 @@
       <c r="AF14" t="n" s="8">
         <v>6943.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>4421.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>3179.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>3158.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>44512.0</v>
@@ -1796,10 +1924,20 @@
       <c r="AF15" t="n" s="8">
         <v>65377.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>67327.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>70437.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>72034.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>48102.0</v>
@@ -1894,10 +2032,20 @@
       <c r="AF16" t="n" s="8">
         <v>72320.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>71748.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>73616.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>75192.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>7.3</v>
@@ -1992,10 +2140,20 @@
       <c r="AF17" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>1140.0</v>
@@ -2090,10 +2248,20 @@
       <c r="AF18" t="n" s="8">
         <v>1549.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>1055.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>843.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>889.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>14408.0</v>
@@ -2188,10 +2356,20 @@
       <c r="AF19" t="n" s="8">
         <v>18884.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>19355.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>19518.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>19763.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>15548.0</v>
@@ -2286,10 +2464,20 @@
       <c r="AF20" t="n" s="8">
         <v>20433.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>20410.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>20361.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>20652.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>7.0</v>
@@ -2384,10 +2572,20 @@
       <c r="AF21" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>627.0</v>
@@ -2482,10 +2680,20 @@
       <c r="AF22" t="n" s="8">
         <v>964.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>677.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>573.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>614.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>8367.0</v>
@@ -2580,10 +2788,20 @@
       <c r="AF23" t="n" s="8">
         <v>14506.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>15030.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>15585.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>16056.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>8994.0</v>
@@ -2678,10 +2896,20 @@
       <c r="AF24" t="n" s="8">
         <v>15470.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>15707.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>16158.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>16670.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>6.5</v>
@@ -2776,10 +3004,20 @@
       <c r="AF25" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>219.0</v>
@@ -2874,10 +3112,20 @@
       <c r="AF26" t="n" s="8">
         <v>230.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>181.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>135.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>135.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>3155.0</v>
@@ -2972,10 +3220,20 @@
       <c r="AF27" t="n" s="8">
         <v>4094.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>4177.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>4510.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>4587.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>3374.0</v>
@@ -3070,10 +3328,20 @@
       <c r="AF28" t="n" s="8">
         <v>4324.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>4358.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>4645.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>4722.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>6.8</v>
@@ -3168,10 +3436,20 @@
       <c r="AF29" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>368.0</v>
@@ -3266,10 +3544,20 @@
       <c r="AF30" t="n" s="8">
         <v>617.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>460.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>415.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>433.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>5074.0</v>
@@ -3364,10 +3652,20 @@
       <c r="AF31" t="n" s="8">
         <v>8140.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>8149.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>8454.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>8660.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>5442.0</v>
@@ -3462,10 +3760,20 @@
       <c r="AF32" t="n" s="8">
         <v>8757.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>8609.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>8869.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>9093.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>4.3</v>
@@ -3560,10 +3868,20 @@
       <c r="AF33" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>47728.0</v>
@@ -3658,10 +3976,20 @@
       <c r="AF34" t="n" s="8">
         <v>165691.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>107001.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>78780.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>83487.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>1067168.0</v>
@@ -3756,10 +4084,20 @@
       <c r="AF35" t="n" s="8">
         <v>2100745.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>2210303.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>2293121.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>2357541.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>1114896.0</v>
@@ -3854,10 +4192,20 @@
       <c r="AF36" t="n" s="8">
         <v>2266436.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>2317304.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>2371901.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>2441028.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>4.8</v>
@@ -3952,10 +4300,20 @@
       <c r="AF37" t="n" s="10">
         <v>9.9</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>2154.0</v>
@@ -4050,10 +4408,20 @@
       <c r="AF38" t="n" s="8">
         <v>8526.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>4982.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>4030.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>4062.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>42400.0</v>
@@ -4148,10 +4516,20 @@
       <c r="AF39" t="n" s="8">
         <v>77778.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>82304.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>85048.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>86020.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>44554.0</v>
@@ -4246,10 +4624,20 @@
       <c r="AF40" t="n" s="8">
         <v>86304.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>87286.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>89078.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>90082.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>10.8</v>
@@ -4344,10 +4732,20 @@
       <c r="AF41" t="n" s="10">
         <v>10.0</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>2846.0</v>
@@ -4442,10 +4840,20 @@
       <c r="AF42" t="n" s="8">
         <v>3941.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>2617.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>2036.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>2272.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>23574.0</v>
@@ -4540,10 +4948,20 @@
       <c r="AF43" t="n" s="8">
         <v>35406.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>36745.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>37479.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>37829.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>26420.0</v>
@@ -4638,10 +5056,20 @@
       <c r="AF44" t="n" s="8">
         <v>39347.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>39362.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>39515.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>40101.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>4.5</v>
@@ -4736,10 +5164,20 @@
       <c r="AF45" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>14224.0</v>
@@ -4834,10 +5272,20 @@
       <c r="AF46" t="n" s="8">
         <v>36656.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>24692.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>18427.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>18914.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>299929.0</v>
@@ -4932,10 +5380,20 @@
       <c r="AF47" t="n" s="8">
         <v>444682.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>457762.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>468109.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>475422.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>314153.0</v>
@@ -5030,10 +5488,20 @@
       <c r="AF48" t="n" s="8">
         <v>481338.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>482454.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>486536.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>494336.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>6.2</v>
@@ -5128,10 +5596,20 @@
       <c r="AF49" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>2812.0</v>
@@ -5226,10 +5704,20 @@
       <c r="AF50" t="n" s="8">
         <v>13931.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>9462.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>7631.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>8399.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>42658.0</v>
@@ -5324,10 +5812,20 @@
       <c r="AF51" t="n" s="8">
         <v>174818.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>183440.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>190831.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>195853.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>45470.0</v>
@@ -5422,10 +5920,20 @@
       <c r="AF52" t="n" s="8">
         <v>188749.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>192902.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>198462.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>204252.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>13.5</v>
@@ -5520,10 +6028,20 @@
       <c r="AF53" t="n" s="10">
         <v>11.3</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>8.8</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>1722.0</v>
@@ -5618,10 +6136,20 @@
       <c r="AF54" t="n" s="8">
         <v>2138.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>1667.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>1410.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>1456.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>11079.0</v>
@@ -5716,10 +6244,20 @@
       <c r="AF55" t="n" s="8">
         <v>16724.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>17221.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>17298.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>17760.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>12801.0</v>
@@ -5814,10 +6352,20 @@
       <c r="AF56" t="n" s="8">
         <v>18862.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>18888.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>18708.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>19216.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>4.5</v>
@@ -5912,10 +6460,20 @@
       <c r="AF57" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>2020.0</v>
@@ -6010,10 +6568,20 @@
       <c r="AF58" t="n" s="8">
         <v>7658.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>4541.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>3692.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>3941.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>42929.0</v>
@@ -6108,10 +6676,20 @@
       <c r="AF59" t="n" s="8">
         <v>96224.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>100533.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>103377.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>105223.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>44949.0</v>
@@ -6206,10 +6784,20 @@
       <c r="AF60" t="n" s="8">
         <v>103882.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>105074.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>107069.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>109164.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>20.6</v>
@@ -6304,10 +6892,20 @@
       <c r="AF61" t="n" s="10">
         <v>17.1</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>13.1</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>9656.0</v>
@@ -6402,10 +7000,20 @@
       <c r="AF62" t="n" s="8">
         <v>16317.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>12227.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>12152.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>13016.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>37265.0</v>
@@ -6500,10 +7108,20 @@
       <c r="AF63" t="n" s="8">
         <v>78941.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>81293.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>85370.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>85581.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>46921.0</v>
@@ -6598,6 +7216,16 @@
       <c r="AF64" t="n" s="8">
         <v>95258.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>93520.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>97522.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>98597.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -6608,7 +7236,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (12:43:09 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:21:16 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
